--- a/lab5/attenuation.xlsx
+++ b/lab5/attenuation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
   <si>
     <t>Frequency</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>IIR SOS</t>
+  </si>
+  <si>
+    <t>IIR DF-II</t>
   </si>
 </sst>
 </file>
@@ -94,10 +97,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,11 +578,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145529272"/>
-        <c:axId val="145527704"/>
+        <c:axId val="162678216"/>
+        <c:axId val="162592272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145529272"/>
+        <c:axId val="162678216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,12 +695,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145527704"/>
+        <c:crossAx val="162592272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145527704"/>
+        <c:axId val="162592272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,7 +817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145529272"/>
+        <c:crossAx val="162678216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1323,11 +1326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204460912"/>
-        <c:axId val="204460520"/>
+        <c:axId val="217361840"/>
+        <c:axId val="162695048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204460912"/>
+        <c:axId val="217361840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,12 +1443,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204460520"/>
+        <c:crossAx val="162695048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204460520"/>
+        <c:axId val="162695048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204460912"/>
+        <c:crossAx val="217361840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2067,11 +2070,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288643152"/>
-        <c:axId val="288642760"/>
+        <c:axId val="162696536"/>
+        <c:axId val="162685280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288643152"/>
+        <c:axId val="162696536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2184,12 +2187,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288642760"/>
+        <c:crossAx val="162685280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288642760"/>
+        <c:axId val="162685280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,7 +2305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288643152"/>
+        <c:crossAx val="162696536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2811,11 +2814,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204461304"/>
-        <c:axId val="299142696"/>
+        <c:axId val="161411248"/>
+        <c:axId val="161411640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204461304"/>
+        <c:axId val="161411248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,12 +2931,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299142696"/>
+        <c:crossAx val="161411640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299142696"/>
+        <c:axId val="161411640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204461304"/>
+        <c:crossAx val="161411248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3058,6 +3061,782 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IIR DF-II</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$6:$AC$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-50.425229304879039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-44.618781714240185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-41.579067252401799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-40.118451569322247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-40.609089623053684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-47.547096863214179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-41.82266602207104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-18.935749701207921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.20988097793179245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.41403955520099145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.8963186149595128E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.24724120779208386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.26306610253428403</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.44022474204530837</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-27.83822484594991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-42.815441825457121</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-48.111672650643094</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-40.958734921424515</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-40.005531224359771</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-40.8098127464675</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-42.739217859720185</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-45.955240840251868</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-51.805530996255882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Expected</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$6:$AF$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-16.162289475221737</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.19519674578312524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.39488116391514261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.19519674578312524</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.7050055888241449E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.49647167450064306</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-21.023050448947625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-23.521825181113627</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="221398464"/>
+        <c:axId val="221398072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="221398464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221398072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="221398072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Attenuation (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221398464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3255,6 +4034,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4804,6 +5623,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5436,6 +6771,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5707,10 +7072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AA28"/>
+  <dimension ref="B3:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5719,83 +7084,101 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1" t="s">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -5874,8 +7257,26 @@
       <c r="AA5" t="s">
         <v>5</v>
       </c>
+      <c r="AB5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1000</v>
       </c>
@@ -5971,8 +7372,30 @@
         <f>Y6/180</f>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB6">
+        <f>AD6*160</f>
+        <v>0.48179081631664</v>
+      </c>
+      <c r="AC6">
+        <f>20*LOG10(AD6)</f>
+        <v>-50.425229304879039</v>
+      </c>
+      <c r="AD6">
+        <v>3.0111926019789998E-3</v>
+      </c>
+      <c r="AE6">
+        <v>12</v>
+      </c>
+      <c r="AF6">
+        <f>20*LOG10(AG6)</f>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG6">
+        <f>AE6/180</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2000</v>
       </c>
@@ -6068,8 +7491,30 @@
         <f t="shared" ref="AA7:AA28" si="16">Y7/180</f>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB7">
+        <f t="shared" ref="AB7:AB28" si="17">AD7*160</f>
+        <v>0.94011481561631993</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" ref="AC7:AC28" si="18">20*LOG10(AD7)</f>
+        <v>-44.618781714240185</v>
+      </c>
+      <c r="AD7">
+        <v>5.8757175976019999E-3</v>
+      </c>
+      <c r="AE7">
+        <v>12</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" ref="AF7:AF29" si="19">20*LOG10(AG7)</f>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" ref="AG7:AG28" si="20">AE7/180</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3000</v>
       </c>
@@ -6165,8 +7610,30 @@
         <f t="shared" si="16"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB8">
+        <f t="shared" si="17"/>
+        <v>1.3340331448977598</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="18"/>
+        <v>-41.579067252401799</v>
+      </c>
+      <c r="AD8">
+        <v>8.3377071556109995E-3</v>
+      </c>
+      <c r="AE8">
+        <v>12</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="19"/>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4000</v>
       </c>
@@ -6262,8 +7729,30 @@
         <f t="shared" si="16"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB9">
+        <f t="shared" si="17"/>
+        <v>1.5783285200358399</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="18"/>
+        <v>-40.118451569322247</v>
+      </c>
+      <c r="AD9">
+        <v>9.8645532502239994E-3</v>
+      </c>
+      <c r="AE9">
+        <v>12</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="19"/>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5000</v>
       </c>
@@ -6359,8 +7848,30 @@
         <f t="shared" si="16"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB10">
+        <f t="shared" si="17"/>
+        <v>1.4916450851955201</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="18"/>
+        <v>-40.609089623053684</v>
+      </c>
+      <c r="AD10">
+        <v>9.3227817824720009E-3</v>
+      </c>
+      <c r="AE10">
+        <v>12</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="19"/>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>6000</v>
       </c>
@@ -6456,8 +7967,30 @@
         <f t="shared" si="16"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB11">
+        <f t="shared" si="17"/>
+        <v>0.67106585156464005</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="18"/>
+        <v>-47.547096863214179</v>
+      </c>
+      <c r="AD11">
+        <v>4.1941615722790003E-3</v>
+      </c>
+      <c r="AE11">
+        <v>12</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="19"/>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7000</v>
       </c>
@@ -6553,8 +8086,30 @@
         <f t="shared" si="16"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB12">
+        <f t="shared" si="17"/>
+        <v>1.2971394911801601</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="18"/>
+        <v>-41.82266602207104</v>
+      </c>
+      <c r="AD12">
+        <v>8.1071218198760005E-3</v>
+      </c>
+      <c r="AE12">
+        <v>12</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="19"/>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8000</v>
       </c>
@@ -6650,8 +8205,30 @@
         <f t="shared" si="16"/>
         <v>0.16666666666666666</v>
       </c>
+      <c r="AB13">
+        <f t="shared" si="17"/>
+        <v>18.085582355352962</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="18"/>
+        <v>-18.935749701207921</v>
+      </c>
+      <c r="AD13">
+        <v>0.113034889720956</v>
+      </c>
+      <c r="AE13">
+        <v>28</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="19"/>
+        <v>-16.162289475221737</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="20"/>
+        <v>0.15555555555555556</v>
+      </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9000</v>
       </c>
@@ -6747,8 +8324,30 @@
         <f t="shared" si="16"/>
         <v>0.97777777777777775</v>
       </c>
+      <c r="AB14">
+        <f t="shared" si="17"/>
+        <v>156.18018529906817</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="18"/>
+        <v>-0.20988097793179245</v>
+      </c>
+      <c r="AD14">
+        <v>0.97612615811917602</v>
+      </c>
+      <c r="AE14">
+        <v>176</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="19"/>
+        <v>-0.19519674578312524</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="20"/>
+        <v>0.97777777777777775</v>
+      </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10000</v>
       </c>
@@ -6844,8 +8443,30 @@
         <f t="shared" si="16"/>
         <v>0.9555555555555556</v>
       </c>
+      <c r="AB15">
+        <f t="shared" si="17"/>
+        <v>152.55203483002322</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="18"/>
+        <v>-0.41403955520099145</v>
+      </c>
+      <c r="AD15">
+        <v>0.95345021768764504</v>
+      </c>
+      <c r="AE15">
+        <v>172</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="19"/>
+        <v>-0.39488116391514261</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="20"/>
+        <v>0.9555555555555556</v>
+      </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11000</v>
       </c>
@@ -6941,8 +8562,30 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
+      <c r="AB16">
+        <f t="shared" si="17"/>
+        <v>158.36960129096559</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="18"/>
+        <v>-8.8963186149595128E-2</v>
+      </c>
+      <c r="AD16">
+        <v>0.98981000806853503</v>
+      </c>
+      <c r="AE16">
+        <v>180</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>12000</v>
       </c>
@@ -6951,7 +8594,7 @@
         <v>0.5</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D28" si="17">172.4346042*F17</f>
+        <f t="shared" ref="D17:D28" si="21">172.4346042*F17</f>
         <v>169.41977083277388</v>
       </c>
       <c r="E17">
@@ -7013,7 +8656,7 @@
         <v>1.2438919485473217</v>
       </c>
       <c r="U17">
-        <f t="shared" ref="U17:U28" si="18">S17/201.0450513</f>
+        <f t="shared" ref="U17:U28" si="22">S17/201.0450513</f>
         <v>1.1539702096611615</v>
       </c>
       <c r="V17">
@@ -7038,8 +8681,30 @@
         <f t="shared" si="16"/>
         <v>0.96666666666666667</v>
       </c>
+      <c r="AB17">
+        <f t="shared" si="17"/>
+        <v>155.50985709085217</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="18"/>
+        <v>-0.24724120779208386</v>
+      </c>
+      <c r="AD17">
+        <v>0.97193660681782601</v>
+      </c>
+      <c r="AE17">
+        <v>176</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="19"/>
+        <v>-0.19519674578312524</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="20"/>
+        <v>0.97777777777777775</v>
+      </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>13000</v>
       </c>
@@ -7048,7 +8713,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>169.47593780684949</v>
       </c>
       <c r="E18">
@@ -7110,7 +8775,7 @@
         <v>2.7523138920336825</v>
       </c>
       <c r="U18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.3728266287348301</v>
       </c>
       <c r="V18">
@@ -7135,8 +8800,30 @@
         <f t="shared" si="16"/>
         <v>0.97777777777777775</v>
       </c>
+      <c r="AB18">
+        <f t="shared" si="17"/>
+        <v>155.22679032494815</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="18"/>
+        <v>-0.26306610253428403</v>
+      </c>
+      <c r="AD18">
+        <v>0.97016743953092599</v>
+      </c>
+      <c r="AE18">
+        <v>178</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="19"/>
+        <v>-9.7050055888241449E-2</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="20"/>
+        <v>0.98888888888888893</v>
+      </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>14000</v>
       </c>
@@ -7145,7 +8832,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>181.4580802851072</v>
       </c>
       <c r="E19">
@@ -7207,7 +8894,7 @@
         <v>5.1083036613926431</v>
       </c>
       <c r="U19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.8005914478333642</v>
       </c>
       <c r="V19">
@@ -7232,8 +8919,30 @@
         <f t="shared" si="16"/>
         <v>0.94444444444444442</v>
       </c>
+      <c r="AB19">
+        <f t="shared" si="17"/>
+        <v>152.09283162573857</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="18"/>
+        <v>-0.44022474204530837</v>
+      </c>
+      <c r="AD19">
+        <v>0.95058019766086599</v>
+      </c>
+      <c r="AE19">
+        <v>170</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="19"/>
+        <v>-0.49647167450064306</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="20"/>
+        <v>0.94444444444444442</v>
+      </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>15000</v>
       </c>
@@ -7242,7 +8951,7 @@
         <v>0.625</v>
       </c>
       <c r="D20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>66.971814221485474</v>
       </c>
       <c r="E20">
@@ -7304,7 +9013,7 @@
         <v>-1.6637059884695693</v>
       </c>
       <c r="U20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.8256855810506587</v>
       </c>
       <c r="V20">
@@ -7329,8 +9038,30 @@
         <f t="shared" si="16"/>
         <v>8.8888888888888892E-2</v>
       </c>
+      <c r="AB20">
+        <f t="shared" si="17"/>
+        <v>6.4894626971835203</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="18"/>
+        <v>-27.83822484594991</v>
+      </c>
+      <c r="AD20">
+        <v>4.0559141857397001E-2</v>
+      </c>
+      <c r="AE20">
+        <v>16</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="19"/>
+        <v>-21.023050448947625</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="20"/>
+        <v>8.8888888888888892E-2</v>
+      </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>16000</v>
       </c>
@@ -7339,7 +9070,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.89845276115326622</v>
       </c>
       <c r="E21">
@@ -7401,7 +9132,7 @@
         <v>-24.482242828318171</v>
       </c>
       <c r="U21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5.96881142928187E-2</v>
       </c>
       <c r="V21">
@@ -7426,8 +9157,30 @@
         <f t="shared" si="16"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB21">
+        <f t="shared" si="17"/>
+        <v>1.1570387163665601</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="18"/>
+        <v>-42.815441825457121</v>
+      </c>
+      <c r="AD21">
+        <v>7.2314919772910003E-3</v>
+      </c>
+      <c r="AE21">
+        <v>12</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="19"/>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>17000</v>
       </c>
@@ -7436,7 +9189,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.7266056241655712</v>
       </c>
       <c r="E22">
@@ -7498,7 +9251,7 @@
         <v>-24.482242828318171</v>
       </c>
       <c r="U22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5.96881142928187E-2</v>
       </c>
       <c r="V22">
@@ -7523,8 +9276,30 @@
         <f t="shared" si="16"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB22">
+        <f t="shared" si="17"/>
+        <v>0.62883448489215998</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="18"/>
+        <v>-48.111672650643094</v>
+      </c>
+      <c r="AD22">
+        <v>3.9302155305759997E-3</v>
+      </c>
+      <c r="AE22">
+        <v>12</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="19"/>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>18000</v>
       </c>
@@ -7533,7 +9308,7 @@
         <v>0.75</v>
       </c>
       <c r="D23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.4497428541312452</v>
       </c>
       <c r="E23">
@@ -7595,7 +9370,7 @@
         <v>-24.482242828318171</v>
       </c>
       <c r="U23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5.96881142928187E-2</v>
       </c>
       <c r="V23">
@@ -7620,8 +9395,30 @@
         <f t="shared" si="16"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB23">
+        <f t="shared" si="17"/>
+        <v>1.43279229237504</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="18"/>
+        <v>-40.958734921424515</v>
+      </c>
+      <c r="AD23">
+        <v>8.9549518273439998E-3</v>
+      </c>
+      <c r="AE23">
+        <v>12</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="19"/>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>19000</v>
       </c>
@@ -7630,14 +9427,14 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.15724631354777172</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
         <v>-60.800879035808805</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>9.1191854603260504E-4</v>
       </c>
       <c r="G24">
@@ -7659,7 +9456,7 @@
         <f t="shared" si="7"/>
         <v>-60.800879035804591</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>9.1191854603304696E-4</v>
       </c>
       <c r="M24">
@@ -7681,7 +9478,7 @@
         <f t="shared" si="11"/>
         <v>-60.800879035804591</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="1">
         <v>9.1191854603304696E-4</v>
       </c>
       <c r="S24">
@@ -7692,7 +9489,7 @@
         <v>-24.482242828318171</v>
       </c>
       <c r="U24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5.96881142928187E-2</v>
       </c>
       <c r="V24">
@@ -7717,8 +9514,30 @@
         <f t="shared" si="16"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB24">
+        <f t="shared" si="17"/>
+        <v>1.59898143516784</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="18"/>
+        <v>-40.005531224359771</v>
+      </c>
+      <c r="AD24">
+        <v>9.9936339697989998E-3</v>
+      </c>
+      <c r="AE24">
+        <v>12</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="19"/>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>20000</v>
       </c>
@@ -7727,7 +9546,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.1128581283183414</v>
       </c>
       <c r="E25">
@@ -7789,7 +9608,7 @@
         <v>-24.482242828318171</v>
       </c>
       <c r="U25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5.96881142928187E-2</v>
       </c>
       <c r="V25">
@@ -7814,8 +9633,30 @@
         <f t="shared" si="16"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB25">
+        <f t="shared" si="17"/>
+        <v>1.4575697460995198</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="18"/>
+        <v>-40.8098127464675</v>
+      </c>
+      <c r="AD25">
+        <v>9.1098109131219993E-3</v>
+      </c>
+      <c r="AE25">
+        <v>12</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="19"/>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>21000</v>
       </c>
@@ -7824,7 +9665,7 @@
         <v>0.875</v>
       </c>
       <c r="D26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.7869147113952257</v>
       </c>
       <c r="E26">
@@ -7886,7 +9727,7 @@
         <v>-24.482242828318171</v>
       </c>
       <c r="U26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5.96881142928187E-2</v>
       </c>
       <c r="V26">
@@ -7911,8 +9752,30 @@
         <f t="shared" si="16"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB26">
+        <f t="shared" si="17"/>
+        <v>1.16723711814144</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="18"/>
+        <v>-42.739217859720185</v>
+      </c>
+      <c r="AD26">
+        <v>7.2952319883839998E-3</v>
+      </c>
+      <c r="AE26">
+        <v>12</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="19"/>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>22000</v>
       </c>
@@ -7921,7 +9784,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.7296673211375215</v>
       </c>
       <c r="E27">
@@ -7983,7 +9846,7 @@
         <v>-24.482242828318171</v>
       </c>
       <c r="U27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5.96881142928187E-2</v>
       </c>
       <c r="V27">
@@ -8008,8 +9871,30 @@
         <f t="shared" si="16"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB27">
+        <f t="shared" si="17"/>
+        <v>0.80604249869839995</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="18"/>
+        <v>-45.955240840251868</v>
+      </c>
+      <c r="AD27">
+        <v>5.0377656168649997E-3</v>
+      </c>
+      <c r="AE27">
+        <v>12</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="19"/>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>23000</v>
       </c>
@@ -8018,7 +9903,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0403814343812097</v>
       </c>
       <c r="E28">
@@ -8080,7 +9965,7 @@
         <v>-24.482242828318171</v>
       </c>
       <c r="U28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5.96881142928187E-2</v>
       </c>
       <c r="V28">
@@ -8105,9 +9990,48 @@
         <f t="shared" si="16"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AB28">
+        <f t="shared" si="17"/>
+        <v>0.4110015245616</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="18"/>
+        <v>-51.805530996255882</v>
+      </c>
+      <c r="AD28">
+        <v>2.56875952851E-3</v>
+      </c>
+      <c r="AE28">
+        <v>12</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="19"/>
+        <v>-23.521825181113627</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF29" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" ref="AG7:AG29" si="23">AE29/160</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="V3:AA3"/>
     <mergeCell ref="M4:O4"/>
@@ -8116,10 +10040,6 @@
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="P3:U3"/>
     <mergeCell ref="V4:X4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
